--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_10_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_10_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_24</t>
+          <t>model_10_9_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9713183196598808</v>
+        <v>0.9795653999537467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7553982903632134</v>
+        <v>0.7377705163480668</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4995230288562171</v>
+        <v>0.762560148588075</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8310373734315339</v>
+        <v>0.9813852230083856</v>
       </c>
       <c r="F2" t="n">
-        <v>0.81857460283813</v>
+        <v>0.9410552195231116</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1917945285013716</v>
+        <v>0.1366462646019772</v>
       </c>
       <c r="H2" t="n">
-        <v>1.635652758628503</v>
+        <v>1.753529764636224</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4326003183880287</v>
+        <v>0.5759518871727486</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7547598521324874</v>
+        <v>0.1857036135724214</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5936800852602581</v>
+        <v>0.380827675050077</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2365635876302278</v>
+        <v>0.4989557963738065</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4379435220452194</v>
+        <v>0.3696569553004207</v>
       </c>
       <c r="N2" t="n">
-        <v>1.015296896181397</v>
+        <v>1.010898453358002</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4565876844467526</v>
+        <v>0.3853940171829475</v>
       </c>
       <c r="P2" t="n">
-        <v>141.3026612880882</v>
+        <v>141.9807194049919</v>
       </c>
       <c r="Q2" t="n">
-        <v>225.4050932039941</v>
+        <v>226.0831513208977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_23</t>
+          <t>model_10_9_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9715838419652941</v>
+        <v>0.9791016060534994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7551807796542002</v>
+        <v>0.7377164370804612</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5061764303603001</v>
+        <v>0.7539728237927682</v>
       </c>
       <c r="E3" t="n">
-        <v>0.832830384597568</v>
+        <v>0.9797785474112488</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8206771527552399</v>
+        <v>0.9382027095245336</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1900189796224548</v>
+        <v>0.1397476565485057</v>
       </c>
       <c r="H3" t="n">
-        <v>1.637107253741219</v>
+        <v>1.753891392947714</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4268492773312309</v>
+        <v>0.5967819453631146</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7467504309366149</v>
+        <v>0.2017320335938564</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5867998907914536</v>
+        <v>0.3992570379559496</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2398085298506741</v>
+        <v>0.5115343457288026</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4359116649304706</v>
+        <v>0.3738283784686574</v>
       </c>
       <c r="N3" t="n">
-        <v>1.015155284285177</v>
+        <v>1.0111458101048</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4544693269681049</v>
+        <v>0.3897430264714924</v>
       </c>
       <c r="P3" t="n">
-        <v>141.3212626381217</v>
+        <v>141.9358338719424</v>
       </c>
       <c r="Q3" t="n">
-        <v>225.4236945540275</v>
+        <v>226.0382657878482</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_22</t>
+          <t>model_10_9_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.971867682377531</v>
+        <v>0.9797424863837028</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7549307121938635</v>
+        <v>0.7375141508678018</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5135043349005783</v>
+        <v>0.7685760480130386</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8348041033296956</v>
+        <v>0.9828231189469915</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8229921513412655</v>
+        <v>0.9432946733123774</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1881209374788619</v>
+        <v>0.1354620868294528</v>
       </c>
       <c r="H4" t="n">
-        <v>1.638779455999945</v>
+        <v>1.75524408178321</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4205152119895297</v>
+        <v>0.5613592709533333</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7379337849796576</v>
+        <v>0.1713589629832417</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5792244984845936</v>
+        <v>0.3663591169682875</v>
       </c>
       <c r="L4" t="n">
-        <v>0.243419233626445</v>
+        <v>0.485122452261761</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4337291061006419</v>
+        <v>0.3680517447716459</v>
       </c>
       <c r="N4" t="n">
-        <v>1.015003902731983</v>
+        <v>1.010804007262025</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4521938520903708</v>
+        <v>0.3837204695187189</v>
       </c>
       <c r="P4" t="n">
-        <v>141.3413404770178</v>
+        <v>141.9981269596219</v>
       </c>
       <c r="Q4" t="n">
-        <v>225.4437723929237</v>
+        <v>226.1005588755277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_21</t>
+          <t>model_10_9_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9721692238822185</v>
+        <v>0.9784348729713936</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7546425003409654</v>
+        <v>0.7374335164052139</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5215688094713935</v>
+        <v>0.7436321831518287</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8369735093661943</v>
+        <v>0.9780786422823149</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8255379596990362</v>
+        <v>0.9349490994662644</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1861045280485456</v>
+        <v>0.1442061037385703</v>
       </c>
       <c r="H5" t="n">
-        <v>1.640706729987368</v>
+        <v>1.755783284805823</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4135444731381621</v>
+        <v>0.6218649777871537</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7282429994338991</v>
+        <v>0.218690524437745</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5708938251249583</v>
+        <v>0.4202778093285057</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2474342465345966</v>
+        <v>0.5229311202561691</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4313983403405089</v>
+        <v>0.3797447876384484</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01484308059615</v>
+        <v>1.011501401081923</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4497638608064787</v>
+        <v>0.3959113094282968</v>
       </c>
       <c r="P5" t="n">
-        <v>141.3628935687285</v>
+        <v>141.873023453486</v>
       </c>
       <c r="Q5" t="n">
-        <v>225.4653254846343</v>
+        <v>225.9754553693918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_20</t>
+          <t>model_10_9_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9724871247326923</v>
+        <v>0.9776312756443033</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7543094686016064</v>
+        <v>0.7369867055302861</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5304285827998791</v>
+        <v>0.7321852420787662</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8393551244731964</v>
+        <v>0.9763427496441816</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8283336770116333</v>
+        <v>0.9314600365412161</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1839787235976286</v>
+        <v>0.1495797627650487</v>
       </c>
       <c r="H6" t="n">
-        <v>1.642933714761931</v>
+        <v>1.75877111118384</v>
       </c>
       <c r="I6" t="n">
-        <v>0.405886297070661</v>
+        <v>0.6496315353981921</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7176042711985223</v>
+        <v>0.2360080316966472</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5617453722706683</v>
+        <v>0.4428197835474197</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2519022939407798</v>
+        <v>0.5332390658061726</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4289274106391763</v>
+        <v>0.3867554301687938</v>
       </c>
       <c r="N6" t="n">
-        <v>1.014673533475897</v>
+        <v>1.011929986323038</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4471877385122307</v>
+        <v>0.4032204095251896</v>
       </c>
       <c r="P6" t="n">
-        <v>141.3858703213614</v>
+        <v>141.7998509964541</v>
       </c>
       <c r="Q6" t="n">
-        <v>225.4883022372672</v>
+        <v>225.9022829123599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_19</t>
+          <t>model_10_9_0</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9728194329998894</v>
+        <v>0.9795274571938957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7539236275651988</v>
+        <v>0.7368461147773218</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5401582291791456</v>
+        <v>0.7709937211631128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.841966283342978</v>
+        <v>0.9839944652517859</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8314009716426382</v>
+        <v>0.9446528743571495</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1817565766847425</v>
+        <v>0.1368999880118111</v>
       </c>
       <c r="H7" t="n">
-        <v>1.645513835549024</v>
+        <v>1.759711242196274</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3974762235524845</v>
+        <v>0.5554947818834829</v>
       </c>
       <c r="J7" t="n">
-        <v>0.705940165813346</v>
+        <v>0.1596734487467283</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5517082343255958</v>
+        <v>0.3575841153151056</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2568669639050988</v>
+        <v>0.4699665376726733</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4263291881688873</v>
+        <v>0.3699999837997444</v>
       </c>
       <c r="N7" t="n">
-        <v>1.014496302400059</v>
+        <v>1.010918689496589</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4444789043323195</v>
+        <v>0.3857516491156543</v>
       </c>
       <c r="P7" t="n">
-        <v>141.4101739557752</v>
+        <v>141.9770092685134</v>
       </c>
       <c r="Q7" t="n">
-        <v>225.512605871681</v>
+        <v>226.0794411844192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_18</t>
+          <t>model_10_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9731626959688155</v>
+        <v>0.9767422511242494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7534756268150254</v>
+        <v>0.7364274067796917</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5508165177216688</v>
+        <v>0.7201348799629377</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8448249946958991</v>
+        <v>0.9746135141467336</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8347598800041349</v>
+        <v>0.927862851486535</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1794611756309531</v>
+        <v>0.1555246738242307</v>
       </c>
       <c r="H8" t="n">
-        <v>1.648509618628287</v>
+        <v>1.762511144504399</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3882634539690416</v>
+        <v>0.6788617962851303</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6931702379195822</v>
+        <v>0.2532591263908496</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5407168459443119</v>
+        <v>0.4660603081539404</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2623884586038716</v>
+        <v>0.5620592467046166</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4236285821695145</v>
+        <v>0.3943661671901264</v>
       </c>
       <c r="N8" t="n">
-        <v>1.014313228816632</v>
+        <v>1.012404132733734</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4416633279445283</v>
+        <v>0.411155151377918</v>
       </c>
       <c r="P8" t="n">
-        <v>141.4355927723956</v>
+        <v>141.7219017716789</v>
       </c>
       <c r="Q8" t="n">
-        <v>225.5380246883014</v>
+        <v>225.8243336875847</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_17</t>
+          <t>model_10_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9735121707411019</v>
+        <v>0.9758073022213027</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7529539307359602</v>
+        <v>0.7357956901098552</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5624792581116104</v>
+        <v>0.707864339223521</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8479481515211484</v>
+        <v>0.9729222423778385</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8384318943039202</v>
+        <v>0.9242535946953834</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1771242362194908</v>
+        <v>0.1617766814432789</v>
       </c>
       <c r="H9" t="n">
-        <v>1.651998202711186</v>
+        <v>1.766735436784383</v>
       </c>
       <c r="I9" t="n">
-        <v>0.378182460243326</v>
+        <v>0.7086261389322138</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6792190261546744</v>
+        <v>0.2701314896299213</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5287008779669711</v>
+        <v>0.4893788252696655</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2685359589818528</v>
+        <v>0.5992767545461789</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4208613028296743</v>
+        <v>0.4022147205700942</v>
       </c>
       <c r="N9" t="n">
-        <v>1.014126842271412</v>
+        <v>1.012902772148639</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4387782397941332</v>
+        <v>0.4193378339240162</v>
       </c>
       <c r="P9" t="n">
-        <v>141.4618077861589</v>
+        <v>141.6430768087552</v>
       </c>
       <c r="Q9" t="n">
-        <v>225.5642397020647</v>
+        <v>225.7455087246611</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_16</t>
+          <t>model_10_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9738611394746233</v>
+        <v>0.9748563155512393</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7523448850346629</v>
+        <v>0.7351225690545375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5752147694008036</v>
+        <v>0.6956608151025416</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8513540033133342</v>
+        <v>0.9712908868426956</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8424386199342584</v>
+        <v>0.9207032093799578</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1747906806915801</v>
+        <v>0.1681359336848843</v>
       </c>
       <c r="H10" t="n">
-        <v>1.656070894120158</v>
+        <v>1.77123660038073</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3671741890216787</v>
+        <v>0.7382279210502565</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6640050096158527</v>
+        <v>0.2864061201578011</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5155896308590957</v>
+        <v>0.5123169883142392</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2753781802856651</v>
+        <v>0.6328873675458769</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4180797539843087</v>
+        <v>0.4100438192253169</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013940725613534</v>
+        <v>1.013409965039339</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4358782746558205</v>
+        <v>0.4275002335174602</v>
       </c>
       <c r="P10" t="n">
-        <v>141.4883322626067</v>
+        <v>141.5659649953413</v>
       </c>
       <c r="Q10" t="n">
-        <v>225.5907641785125</v>
+        <v>225.6683969112471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_15</t>
+          <t>model_10_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9742003933286616</v>
+        <v>0.9739116252216276</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7516320400281266</v>
+        <v>0.7344316203041746</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5890906643667491</v>
+        <v>0.683736475540461</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8550588985646007</v>
+        <v>0.9697344016344066</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8468000762519747</v>
+        <v>0.917263032709585</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1725220886075051</v>
+        <v>0.174453082268897</v>
       </c>
       <c r="H11" t="n">
-        <v>1.660837691961216</v>
+        <v>1.775856977855933</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3551801974370742</v>
+        <v>0.7671524921920833</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6474551592211024</v>
+        <v>0.301933833854371</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5013175950853472</v>
+        <v>0.5345431205101726</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2829888226880516</v>
+        <v>0.6632291193004437</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4153577838532764</v>
+        <v>0.4176758100116608</v>
       </c>
       <c r="N11" t="n">
-        <v>1.013759790224714</v>
+        <v>1.013913799881799</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4330404246210552</v>
+        <v>0.4354571339519777</v>
       </c>
       <c r="P11" t="n">
-        <v>141.5144600016197</v>
+        <v>141.4921988860215</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.6168919175255</v>
+        <v>225.5946308019274</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_14</t>
+          <t>model_10_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9745176725291317</v>
+        <v>0.9729893819290953</v>
       </c>
       <c r="C12" t="n">
-        <v>0.750795507478612</v>
+        <v>0.7337405389235359</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6041716479878878</v>
+        <v>0.6722395593561299</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8590789775689486</v>
+        <v>0.9682623808235984</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8515357616137201</v>
+        <v>0.9139682852256269</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1704004411330252</v>
+        <v>0.1806201274125994</v>
       </c>
       <c r="H12" t="n">
-        <v>1.666431588971699</v>
+        <v>1.780478242230402</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3421445560544162</v>
+        <v>0.7950402731760123</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6294973759141943</v>
+        <v>0.3166189189318904</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4858209659843052</v>
+        <v>0.5558296706345687</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2914641125354409</v>
+        <v>0.690607198657168</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4127958831347828</v>
+        <v>0.4249942675055741</v>
       </c>
       <c r="N12" t="n">
-        <v>1.01359057465113</v>
+        <v>1.014405662971149</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4303694584851097</v>
+        <v>0.4430871533327023</v>
       </c>
       <c r="P12" t="n">
-        <v>141.5392081515629</v>
+        <v>141.4227183934834</v>
       </c>
       <c r="Q12" t="n">
-        <v>225.6416400674687</v>
+        <v>225.5251503093893</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_13</t>
+          <t>model_10_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9747967126463877</v>
+        <v>0.9721010132648238</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7498114323206385</v>
+        <v>0.7330623796926101</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6205160612863569</v>
+        <v>0.6612731847754162</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8634274862846075</v>
+        <v>0.9668797489827382</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8566625083383033</v>
+        <v>0.9108421539913729</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1685344985840734</v>
+        <v>0.1865606527611454</v>
       </c>
       <c r="H13" t="n">
-        <v>1.673012104084317</v>
+        <v>1.785013096130238</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3280168362901595</v>
+        <v>0.8216411327101085</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6100724897018719</v>
+        <v>0.3304122471680375</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4690446629960158</v>
+        <v>0.5760268327956726</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3009006716394086</v>
+        <v>0.715298911049658</v>
       </c>
       <c r="M13" t="n">
-        <v>0.410529534362722</v>
+        <v>0.4319266752136818</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01344175325526</v>
+        <v>1.014879459592094</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4280066265538336</v>
+        <v>0.4503146879890065</v>
       </c>
       <c r="P13" t="n">
-        <v>141.5612296215492</v>
+        <v>141.3579977537841</v>
       </c>
       <c r="Q13" t="n">
-        <v>225.6636615374551</v>
+        <v>225.4604296696899</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9750163204846125</v>
+        <v>0.9712542958165862</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7486508685899986</v>
+        <v>0.7324064228432655</v>
       </c>
       <c r="D14" t="n">
-        <v>0.638171582251112</v>
+        <v>0.6509016759784207</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8681148052080518</v>
+        <v>0.9655890359910078</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8621936972962585</v>
+        <v>0.9078986925237185</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1670659799586621</v>
+        <v>0.1922226562362855</v>
       </c>
       <c r="H14" t="n">
-        <v>1.68077279909501</v>
+        <v>1.789399482602209</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3127558264314956</v>
+        <v>0.8467990412454164</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5891341306729709</v>
+        <v>0.3432885801349695</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4509448997681603</v>
+        <v>0.595043810690193</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3114114841707665</v>
+        <v>0.7375569803941299</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4087370547903164</v>
+        <v>0.4384320428940904</v>
       </c>
       <c r="N14" t="n">
-        <v>1.013324629074873</v>
+        <v>1.015331042231154</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4261378374150864</v>
+        <v>0.4570970026395376</v>
       </c>
       <c r="P14" t="n">
-        <v>141.5787329100398</v>
+        <v>141.2982018219049</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.6811648259456</v>
+        <v>225.4006337378108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_11</t>
+          <t>model_10_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9751491924540666</v>
+        <v>0.9704539910188776</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7472789883885882</v>
+        <v>0.7317789982813323</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6571716655457609</v>
+        <v>0.6411602020316555</v>
       </c>
       <c r="E15" t="n">
-        <v>0.873148372306333</v>
+        <v>0.9643898763444341</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8681387365446224</v>
+        <v>0.9051441713987145</v>
       </c>
       <c r="G15" t="n">
-        <v>0.166177464487104</v>
+        <v>0.1975742981036269</v>
       </c>
       <c r="H15" t="n">
-        <v>1.68994656831877</v>
+        <v>1.793595073536881</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2963326090677084</v>
+        <v>0.8704286900601387</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5666490732614247</v>
+        <v>0.3552515641513393</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4314908902245285</v>
+        <v>0.6128400916742724</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3231187511759901</v>
+        <v>0.7576176614547223</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4076487023002821</v>
+        <v>0.4444933049030401</v>
       </c>
       <c r="N15" t="n">
-        <v>1.013253764024498</v>
+        <v>1.015757871456599</v>
       </c>
       <c r="O15" t="n">
-        <v>0.425003151506351</v>
+        <v>0.4634163051207503</v>
       </c>
       <c r="P15" t="n">
-        <v>141.5893979969827</v>
+        <v>141.2432811449081</v>
       </c>
       <c r="Q15" t="n">
-        <v>225.6918299128886</v>
+        <v>225.3457130608139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_10</t>
+          <t>model_10_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9751600931475908</v>
+        <v>0.9697027692270995</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7456536002115997</v>
+        <v>0.7311843306430994</v>
       </c>
       <c r="D16" t="n">
-        <v>0.677528048943029</v>
+        <v>0.6320638437916456</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8785284499904189</v>
+        <v>0.9632801963643632</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8744994726552243</v>
+        <v>0.9025798387786499</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1661045714993143</v>
+        <v>0.2025977216843055</v>
       </c>
       <c r="H16" t="n">
-        <v>1.700815546542516</v>
+        <v>1.797571618771937</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2787370383489171</v>
+        <v>0.8924934978991733</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5426161452715387</v>
+        <v>0.3663218865248474</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4106765918102279</v>
+        <v>0.629407611679494</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3361656758996028</v>
+        <v>0.7756982880698835</v>
       </c>
       <c r="M16" t="n">
-        <v>0.407559285870552</v>
+        <v>0.4501085665528989</v>
       </c>
       <c r="N16" t="n">
-        <v>1.013247950321285</v>
+        <v>1.01615852307888</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4249099284340899</v>
+        <v>0.4692706200842378</v>
       </c>
       <c r="P16" t="n">
-        <v>141.590275480338</v>
+        <v>141.1930658652384</v>
       </c>
       <c r="Q16" t="n">
-        <v>225.6927073962438</v>
+        <v>225.2954977811443</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_9</t>
+          <t>model_10_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9750041996655311</v>
+        <v>0.9690016040432056</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7437236890741099</v>
+        <v>0.7306247838942701</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6992276190540225</v>
+        <v>0.6236102597441391</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8842481472809863</v>
+        <v>0.9622571113176627</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8812693853652862</v>
+        <v>0.9002030001857534</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1671470319316713</v>
+        <v>0.2072864164975732</v>
       </c>
       <c r="H17" t="n">
-        <v>1.713720871205333</v>
+        <v>1.801313310457835</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2599804491747025</v>
+        <v>0.9129991445148632</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5170661288628982</v>
+        <v>0.3765283257558829</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3885233408443333</v>
+        <v>0.6447637790615574</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3507174171392032</v>
+        <v>0.7919849480276033</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4088361920521119</v>
+        <v>0.4552871802473393</v>
       </c>
       <c r="N17" t="n">
-        <v>1.013331093511717</v>
+        <v>1.016532477843624</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4262411951553589</v>
+        <v>0.4746696980848586</v>
       </c>
       <c r="P17" t="n">
-        <v>141.5777628463772</v>
+        <v>141.1473075750141</v>
       </c>
       <c r="Q17" t="n">
-        <v>225.680194762283</v>
+        <v>225.2497394909199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_8</t>
+          <t>model_10_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9746247814561263</v>
+        <v>0.9683503657509369</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7414275659050864</v>
+        <v>0.7301014627121287</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7222226825949476</v>
+        <v>0.6157876820710926</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8902917827192524</v>
+        <v>0.9613164340255932</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8884314919025336</v>
+        <v>0.8980082593765184</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1696842032450212</v>
+        <v>0.2116412499566501</v>
       </c>
       <c r="H18" t="n">
-        <v>1.729075057409268</v>
+        <v>1.804812761612486</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2401040664783661</v>
+        <v>0.9319741748080308</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4900690734644964</v>
+        <v>0.3859126537240088</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3650867102171316</v>
+        <v>0.6589434576175953</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3669454793882788</v>
+        <v>0.8066519508350768</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4119274247304023</v>
+        <v>0.4600448347244539</v>
       </c>
       <c r="N18" t="n">
-        <v>1.013533449890066</v>
+        <v>1.016879804932834</v>
       </c>
       <c r="O18" t="n">
-        <v>0.429464028008498</v>
+        <v>0.4796298957627665</v>
       </c>
       <c r="P18" t="n">
-        <v>141.5476323948658</v>
+        <v>141.1057253098251</v>
       </c>
       <c r="Q18" t="n">
-        <v>225.6500643107717</v>
+        <v>225.208157225731</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_7</t>
+          <t>model_10_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9739500148586303</v>
+        <v>0.9677478254663449</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7386905789662368</v>
+        <v>0.7296145187449794</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7464145418629748</v>
+        <v>0.6085722372254456</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8966309628996212</v>
+        <v>0.9604538978856381</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8959534374391189</v>
+        <v>0.8959878427105932</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1741963705894916</v>
+        <v>0.2156704396141606</v>
       </c>
       <c r="H19" t="n">
-        <v>1.747377301672022</v>
+        <v>1.808068958162985</v>
       </c>
       <c r="I19" t="n">
-        <v>0.219193202192584</v>
+        <v>0.9494764982424893</v>
       </c>
       <c r="J19" t="n">
-        <v>0.461751813057577</v>
+        <v>0.3945174346514746</v>
       </c>
       <c r="K19" t="n">
-        <v>0.340472574945328</v>
+        <v>0.6719968709188529</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3850619032706862</v>
+        <v>0.8198651191556726</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4173683871467646</v>
+        <v>0.4644033156795509</v>
       </c>
       <c r="N19" t="n">
-        <v>1.013893325408731</v>
+        <v>1.017201159751283</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4351366234592698</v>
+        <v>0.4841739262754214</v>
       </c>
       <c r="P19" t="n">
-        <v>141.4951440990278</v>
+        <v>141.0680075579108</v>
       </c>
       <c r="Q19" t="n">
-        <v>225.5975760149336</v>
+        <v>225.1704394738167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_6</t>
+          <t>model_10_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9728900704622713</v>
+        <v>0.9671922352459278</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7354223290727198</v>
+        <v>0.7291633057343525</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7716596695240288</v>
+        <v>0.6019365274372683</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9032237313932329</v>
+        <v>0.9596646692471736</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9037875695215853</v>
+        <v>0.8941328442009427</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1812842236485391</v>
+        <v>0.2193856739763472</v>
       </c>
       <c r="H20" t="n">
-        <v>1.769232103758878</v>
+        <v>1.811086221642692</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1973719179105929</v>
+        <v>0.9655725729009974</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4323017679532786</v>
+        <v>0.4023908897115975</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3148368686141514</v>
+        <v>0.6839815583489559</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4086812603890584</v>
+        <v>0.8317646527248802</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4257748508878126</v>
+        <v>0.4683862444354522</v>
       </c>
       <c r="N20" t="n">
-        <v>1.014458629086789</v>
+        <v>1.017497474535505</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4439009677655532</v>
+        <v>0.4883264165542606</v>
       </c>
       <c r="P20" t="n">
-        <v>141.4153783658835</v>
+        <v>141.0338480592865</v>
       </c>
       <c r="Q20" t="n">
-        <v>225.5178102817894</v>
+        <v>225.1362799751923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_5</t>
+          <t>model_10_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9713323278156887</v>
+        <v>0.9666814957008774</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7315135003754649</v>
+        <v>0.7287466980654875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7977409638194763</v>
+        <v>0.595850729457597</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9100093849258493</v>
+        <v>0.9589438998268793</v>
       </c>
       <c r="F21" t="n">
-        <v>0.911863792137661</v>
+        <v>0.8924338929176484</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1917008558989829</v>
+        <v>0.2228009916658387</v>
       </c>
       <c r="H21" t="n">
-        <v>1.795370459255922</v>
+        <v>1.813872079042694</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1748278711977201</v>
+        <v>0.9803347402899201</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4019901010425816</v>
+        <v>0.4095813860555211</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2884089670838337</v>
+        <v>0.6949580631727206</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4379259879133523</v>
+        <v>0.8424767564323504</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4378365629992348</v>
+        <v>0.4720179993028218</v>
       </c>
       <c r="N21" t="n">
-        <v>1.015289425164966</v>
+        <v>1.017769868959532</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4564761719327448</v>
+        <v>0.4921127827451031</v>
       </c>
       <c r="P21" t="n">
-        <v>141.3036383283142</v>
+        <v>141.0029526400301</v>
       </c>
       <c r="Q21" t="n">
-        <v>225.40607024422</v>
+        <v>225.1053845559359</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_4</t>
+          <t>model_10_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.969136456216278</v>
+        <v>0.9662132148790685</v>
       </c>
       <c r="C22" t="n">
-        <v>0.726831886395939</v>
+        <v>0.7283632726045641</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8243610287459107</v>
+        <v>0.5902818355951525</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9169072335704171</v>
+        <v>0.9582868612751785</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9200877387668172</v>
+        <v>0.890881215742507</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2063846593953008</v>
+        <v>0.2259323876775094</v>
       </c>
       <c r="H22" t="n">
-        <v>1.826676433493862</v>
+        <v>1.816436046865401</v>
       </c>
       <c r="I22" t="n">
-        <v>0.151818124043186</v>
+        <v>0.9938430663374094</v>
       </c>
       <c r="J22" t="n">
-        <v>0.371177256044006</v>
+        <v>0.4161360943586181</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2614976668339736</v>
+        <v>0.7049895270941828</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4703438442382463</v>
+        <v>0.8521244547791746</v>
       </c>
       <c r="M22" t="n">
-        <v>0.45429578403866</v>
+        <v>0.4753234558461316</v>
       </c>
       <c r="N22" t="n">
-        <v>1.016460556684652</v>
+        <v>1.018019618731163</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4736360960871028</v>
+        <v>0.4955589594166998</v>
       </c>
       <c r="P22" t="n">
-        <v>141.1560271455442</v>
+        <v>140.9750389880771</v>
       </c>
       <c r="Q22" t="n">
-        <v>225.2584590614501</v>
+        <v>225.0774709039829</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_3</t>
+          <t>model_10_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9661283646910351</v>
+        <v>0.9657846163153813</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7212174917326344</v>
+        <v>0.7280113397667016</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8511339048180606</v>
+        <v>0.5851933584470029</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9238118003474369</v>
+        <v>0.9576886111270854</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9283364288132261</v>
+        <v>0.8894640872847982</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2264997812755876</v>
+        <v>0.2287984282464011</v>
       </c>
       <c r="H23" t="n">
-        <v>1.86421991645929</v>
+        <v>1.818789423372689</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1286762905907775</v>
+        <v>1.006186057620822</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3403344009967054</v>
+        <v>0.4221043213414697</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2345053984600576</v>
+        <v>0.7141452442150253</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5062732784451223</v>
+        <v>0.8608092688327976</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4759199315804998</v>
+        <v>0.4783287867632484</v>
       </c>
       <c r="N23" t="n">
-        <v>1.018064872164781</v>
+        <v>1.018248204631797</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4961808283579551</v>
+        <v>0.498692233492851</v>
       </c>
       <c r="P23" t="n">
-        <v>140.9700225994604</v>
+        <v>140.9498277781051</v>
       </c>
       <c r="Q23" t="n">
-        <v>225.0724545153662</v>
+        <v>225.0522596940109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_2</t>
+          <t>model_10_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9620925596285598</v>
+        <v>0.965393318044875</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7144767956726876</v>
+        <v>0.7276890289701291</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8775687727078373</v>
+        <v>0.5805550525615073</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9305908134276202</v>
+        <v>0.957144751505479</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9364548145333229</v>
+        <v>0.8881734844832631</v>
       </c>
       <c r="G24" t="n">
-        <v>0.253487228311534</v>
+        <v>0.2314150415830386</v>
       </c>
       <c r="H24" t="n">
-        <v>1.909294982050205</v>
+        <v>1.820944717153474</v>
       </c>
       <c r="I24" t="n">
-        <v>0.105826623323315</v>
+        <v>1.017437079772959</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3100523971363429</v>
+        <v>0.4275299408401052</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2079395261958643</v>
+        <v>0.7224835103065321</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5463395084181889</v>
+        <v>0.8686276271059044</v>
       </c>
       <c r="M24" t="n">
-        <v>0.503475151632664</v>
+        <v>0.481056173001697</v>
       </c>
       <c r="N24" t="n">
-        <v>1.020217301531435</v>
+        <v>1.018456897042733</v>
       </c>
       <c r="O24" t="n">
-        <v>0.524909131174909</v>
+        <v>0.5015357302099381</v>
       </c>
       <c r="P24" t="n">
-        <v>140.7448836772683</v>
+        <v>140.927084927631</v>
       </c>
       <c r="Q24" t="n">
-        <v>224.8473155931741</v>
+        <v>225.0295168435369</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_1</t>
+          <t>model_10_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9567631191767073</v>
+        <v>0.9650364742400326</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7063755773055873</v>
+        <v>0.727394395047016</v>
       </c>
       <c r="D25" t="n">
-        <v>0.903067856902215</v>
+        <v>0.5763309849101874</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9370819186218835</v>
+        <v>0.9566507045332365</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9442530897349257</v>
+        <v>0.8869990938114012</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2891252211528884</v>
+        <v>0.2338012577491351</v>
       </c>
       <c r="H25" t="n">
-        <v>1.963467866573686</v>
+        <v>1.822914935553996</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08378582509061891</v>
+        <v>1.027683294638981</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2810564842762088</v>
+        <v>0.4324586223956921</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1824211546834139</v>
+        <v>0.7300709585173366</v>
       </c>
       <c r="L25" t="n">
-        <v>0.590734028027593</v>
+        <v>0.8756653806047051</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5377036555137862</v>
+        <v>0.4835299967418103</v>
       </c>
       <c r="N25" t="n">
-        <v>1.023059669772423</v>
+        <v>1.018647213738649</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5605948133290215</v>
+        <v>0.5041148697481892</v>
       </c>
       <c r="P25" t="n">
-        <v>140.4817907870535</v>
+        <v>140.9065677007288</v>
       </c>
       <c r="Q25" t="n">
-        <v>224.5842227029594</v>
+        <v>225.0089996166346</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_0</t>
+          <t>model_10_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9498129653493091</v>
+        <v>0.9647115569575778</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6966302176956669</v>
+        <v>0.7271255591458499</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9269237321366358</v>
+        <v>0.5724889243795801</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9430913555202523</v>
+        <v>0.9562024239720666</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9515055759751126</v>
+        <v>0.885931749265602</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3356009317992157</v>
+        <v>0.2359739811130166</v>
       </c>
       <c r="H26" t="n">
-        <v>2.028635131158478</v>
+        <v>1.824712642462969</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06316537736402281</v>
+        <v>1.037002884421727</v>
       </c>
       <c r="J26" t="n">
-        <v>0.254212194524508</v>
+        <v>0.4369307318462131</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1586887736784464</v>
+        <v>0.73696680813397</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6398314349002725</v>
+        <v>0.8820055867835257</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5793107385498871</v>
+        <v>0.4857715318058651</v>
       </c>
       <c r="N26" t="n">
-        <v>1.026766418480368</v>
+        <v>1.018820502955958</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6039731960285047</v>
+        <v>0.5064518316005381</v>
       </c>
       <c r="P26" t="n">
-        <v>140.1836650557512</v>
+        <v>140.8880674591111</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.2860969716571</v>
+        <v>224.990499375017</v>
       </c>
     </row>
   </sheetData>
